--- a/biology/Zoologie/Bradypodion_pumilum/Bradypodion_pumilum.xlsx
+++ b/biology/Zoologie/Bradypodion_pumilum/Bradypodion_pumilum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bradypodion pumilum est une espèce de sauriens de la famille des Chamaeleonidae[1]. Cette espèce effectue une reproduction vivipare[2], donc met au monde des petits en vie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bradypodion pumilum est une espèce de sauriens de la famille des Chamaeleonidae. Cette espèce effectue une reproduction vivipare, donc met au monde des petits en vie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, dans le sud du Mozambique et dans le sud de la Namibie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, dans le sud du Mozambique et dans le sud de la Namibie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un caméléon ovovivipare atteignant environ 15 centimètres (queue incluse). Ce sont des lézards lents avec des mouvements saccadés pour imiter le mouvement des feuilles. Lorsqu'ils sont dérangés ils peuvent se gonfler et pousser un sifflement pour effrayer leur prédateur.
 </t>
@@ -573,7 +589,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nombreuses sous-espèces ont été élevées au rang d'espèce.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gmelin, 1789 : Caroli a Linné Systema naturae. 13. ed., Tom 1 Pars 3. G. E. Beer, Lipsiae, p. 1033-1516.</t>
         </is>
